--- a/xlsx/CaVaTeCo/form_p_parcels.xlsx
+++ b/xlsx/CaVaTeCo/form_p_parcels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_ilrg_lamadi\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FACF2F-676D-486F-A0B1-DCAAE0F52B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965B0DF-2887-4B3F-B91E-40450BCFD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -942,9 +942,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1287,496 +1294,466 @@
   </borders>
   <cellStyleXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="244"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="244" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="244"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="244" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1787,29 +1764,59 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="258">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2409,10 +2416,10 @@
   <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22:N23"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3923,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF84EE8-6051-4D72-B732-1AC4EEA6A542}">
   <dimension ref="A1:M907"/>
   <sheetViews>
-    <sheetView topLeftCell="A606" workbookViewId="0">
+    <sheetView topLeftCell="A906" workbookViewId="0">
       <selection activeCell="B907" sqref="B907"/>
     </sheetView>
   </sheetViews>
@@ -9329,7 +9336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9367,7 +9374,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="122">
-        <v>2022020201</v>
+        <v>2022082401</v>
       </c>
       <c r="D2" s="122" t="s">
         <v>272</v>
